--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -581,6 +581,18 @@
     <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,18 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,6 +625,15 @@
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -681,15 +690,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -711,9 +711,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="9"/>
-    <tableColumn id="2" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -988,54 +988,54 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" customWidth="1"/>
-    <col min="3" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1051,7 +1051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2012</v>
       </c>
@@ -1073,13 +1073,13 @@
       <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="27">
-        <v>0</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="28" t="s">
+      <c r="H3" s="19">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="7" t="str">
@@ -1087,7 +1087,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2013</v>
       </c>
@@ -1109,18 +1109,18 @@
       <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="H4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2014</v>
       </c>
@@ -1142,18 +1142,18 @@
       <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="28" t="s">
+      <c r="H5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2015</v>
       </c>
@@ -1175,13 +1175,13 @@
       <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="29">
-        <v>0</v>
-      </c>
-      <c r="J6" s="28" t="s">
+      <c r="H6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="7" t="str">
@@ -1189,7 +1189,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2016</v>
       </c>
@@ -1211,13 +1211,13 @@
       <c r="G7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="H7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="21">
         <v>0</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="7" t="str">
@@ -1225,7 +1225,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2017</v>
       </c>
@@ -1247,13 +1247,13 @@
       <c r="G8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="29">
+      <c r="H8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="21">
         <v>1</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="7" t="str">
@@ -1261,7 +1261,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2018</v>
       </c>
@@ -1283,13 +1283,13 @@
       <c r="G9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="29">
+      <c r="H9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="21">
         <v>1</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="7" t="str">
@@ -1297,7 +1297,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -1319,13 +1319,13 @@
       <c r="G10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="29">
+      <c r="H10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="21">
         <v>1</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="7" t="str">
@@ -1333,7 +1333,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2019</v>
       </c>
@@ -1355,13 +1355,13 @@
       <c r="G11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="29">
+      <c r="H11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="21">
         <v>1</v>
       </c>
       <c r="K11" s="7" t="str">
@@ -1369,7 +1369,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2019</v>
       </c>
@@ -1391,13 +1391,13 @@
       <c r="G12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="H12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="21">
         <v>2</v>
       </c>
       <c r="K12" s="7" t="str">
@@ -1414,7 +1414,7 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1431,12 +1431,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I10">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1465,7 +1465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1482,7 +1482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3 J6:J10">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1499,7 +1499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12 I11:I12">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1516,7 +1516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1546,15 +1546,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
@@ -988,7 +988,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,14 +1179,14 @@
         <v>6</v>
       </c>
       <c r="I6" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>Year</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>100th Anniversary - Teaching in Estonian at the University of Tartu</t>
+  </si>
+  <si>
+    <t>200 years since the discovery of the Antarctic</t>
+  </si>
+  <si>
+    <t>100th anniversary of the Treaty of Tartu</t>
   </si>
 </sst>
 </file>
@@ -626,15 +632,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -690,6 +687,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -711,9 +717,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="9"/>
+    <tableColumn id="2" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -982,26 +988,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
-    <col min="3" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" customWidth="1"/>
+    <col min="3" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1029,7 @@
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
@@ -1051,7 +1057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2012</v>
       </c>
@@ -1083,11 +1089,11 @@
         <v>6</v>
       </c>
       <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K12" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="K3:K11" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2013</v>
       </c>
@@ -1120,7 +1126,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2014</v>
       </c>
@@ -1153,7 +1159,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2015</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2016</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2017</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2018</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2019</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2019</v>
       </c>
@@ -1401,8 +1407,56 @@
         <v>2</v>
       </c>
       <c r="K12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(H12&gt;1,H12&lt;&gt;"-"),AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="7" t="str">
+        <f t="shared" ref="K13" si="1">IF(OR(AND(H13&gt;1,H13&lt;&gt;"-"),AND(I13&gt;1,I13&lt;&gt;"-"),AND(J13&gt;1,J13&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="7" t="str">
+        <f t="shared" ref="K14" si="2">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1468,7 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1430,13 +1484,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J11:J14">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I10">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1452,7 +1506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="J11:J14">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1465,7 +1519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1482,7 +1536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3 J6:J10">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1498,12 +1552,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H12 I11:I12">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H6:H12 I11:I12 H13:I14">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H12 I11:I12">
+  <conditionalFormatting sqref="H6:H12 I11:I12 H13:I14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1516,7 +1570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J5">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1546,15 +1600,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1576,7 +1630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1587,7 +1641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1598,7 +1652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1609,7 +1663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1620,7 +1674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -632,6 +632,15 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -687,15 +696,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -717,9 +717,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="9"/>
-    <tableColumn id="2" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -994,20 +994,20 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
@@ -1057,7 +1057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2012</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2013</v>
       </c>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2014</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2015</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2016</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2017</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2018</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2019</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2019</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2020</v>
       </c>
@@ -1429,13 +1429,15 @@
       <c r="G13" s="15"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
       <c r="K13" s="7" t="str">
         <f t="shared" ref="K13" si="1">IF(OR(AND(H13&gt;1,H13&lt;&gt;"-"),AND(I13&gt;1,I13&lt;&gt;"-"),AND(J13&gt;1,J13&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2020</v>
       </c>
@@ -1468,7 +1470,7 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1485,12 +1487,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J14">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I10">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1519,7 +1521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1536,7 +1538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3 J6:J10">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1553,7 +1555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12 I11:I12 H13:I14">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1570,7 +1572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1600,15 +1602,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1630,7 +1632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
@@ -994,7 +994,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,9 @@
       <c r="G14" s="15"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="21">
+        <v>1</v>
+      </c>
       <c r="K14" s="7" t="str">
         <f t="shared" ref="K14" si="2">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF326716-10A7-4437-8ADE-7BEB16EB7D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -269,12 +270,21 @@
   </si>
   <si>
     <t>100th anniversary of the Treaty of Tartu</t>
+  </si>
+  <si>
+    <t>750.000</t>
+  </si>
+  <si>
+    <t>200 years since the discovery of the Antarctic</t>
+  </si>
+  <si>
+    <t>100th anniversary of the Treaty of Tartu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,11 +636,107 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Гиперссылка 2" xfId="3"/>
+    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -710,16 +816,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -987,14 +1093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,13 +1530,23 @@
       <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21">
+      <c r="E13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="21">
         <v>1</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="K13" s="7" t="str">
         <f t="shared" ref="K13" si="1">IF(OR(AND(H13&gt;1,H13&lt;&gt;"-"),AND(I13&gt;1,I13&lt;&gt;"-"),AND(J13&gt;1,J13&lt;&gt;"-")),"Can exchange","")</f>
@@ -1450,16 +1566,98 @@
       <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21">
+      <c r="E14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="21">
         <v>1</v>
       </c>
+      <c r="J14" s="20" t="s">
+        <v>6</v>
+      </c>
       <c r="K14" s="7" t="str">
-        <f t="shared" ref="K14" si="2">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="K14:K15" si="2">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" ref="K16" si="3">IF(OR(AND(H16&gt;1,H16&lt;&gt;"-"),AND(I16&gt;1,I16&lt;&gt;"-"),AND(J16&gt;1,J16&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1472,11 +1670,215 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J12">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I10">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I10">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J12">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J6:J10">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J10 J3">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I12 H6:H12">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I12 H6:H12">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:J5">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:J5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1488,17 +1890,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J14">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I10">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I10">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1510,7 +1907,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J14">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1522,12 +1924,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1539,12 +1941,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J6:J10">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J10 J3">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1556,12 +1958,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H12 I11:I12 H13:I14">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H12 I11:I12 H13:I14">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1573,12 +1975,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:J5">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:J5">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1597,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1691,12 +2093,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF326716-10A7-4437-8ADE-7BEB16EB7D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15381585-7C5B-4072-9FD3-0174A9144399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,7 +51,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{828E0731-2279-42C5-AE03-8804C69D0573}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +114,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{1B280CBE-BEBF-4929-99D8-164458841E05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -279,6 +320,21 @@
   </si>
   <si>
     <t>100th anniversary of the Treaty of Tartu</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Society of Estonian Literati</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Glory to Ukraine</t>
+  </si>
+  <si>
+    <t>Barn Swallow</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
@@ -405,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -539,6 +595,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -609,6 +685,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,16 +703,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,103 +716,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -745,6 +725,214 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -823,9 +1011,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1094,76 +1282,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
-    <col min="3" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" customWidth="1"/>
+    <col min="3" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="6" width="12.36328125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="9" max="10" width="4" customWidth="1"/>
+    <col min="11" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2012</v>
       </c>
@@ -1176,30 +1374,36 @@
       <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="19">
         <v>1</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K11" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="K3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M20" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2013</v>
       </c>
@@ -1221,7 +1425,7 @@
       <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="20" t="s">
@@ -1230,9 +1434,18 @@
       <c r="J4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2014</v>
       </c>
@@ -1254,7 +1467,7 @@
       <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="20" t="s">
@@ -1263,9 +1476,18 @@
       <c r="J5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2015</v>
       </c>
@@ -1281,689 +1503,1161 @@
       <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="21">
+      <c r="H6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="21">
         <v>2</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="7" t="str">
+      <c r="L6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f>IF(OR(AND(J6&gt;1,J6&lt;&gt;"-"),AND(K6&gt;1,K6&lt;&gt;"-"),AND(L6&gt;1,L6&lt;&gt;"-"),AND(I6&gt;1,I6&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="21">
+        <v>2</v>
+      </c>
+      <c r="M12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="17" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="7" t="str">
+      <c r="E13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="17" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="21">
+      <c r="E14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="21">
         <v>1</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="7" t="str">
+      <c r="L14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="17" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="21">
-        <v>1</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="7" t="str">
+      <c r="E15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="17" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="21">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="7" t="str">
+      <c r="E16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="17" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="21">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7" t="str">
+      <c r="H17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="17" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="E18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="21">
-        <v>2</v>
-      </c>
-      <c r="K12" s="7" t="str">
-        <f>IF(OR(AND(H12&gt;1,H12&lt;&gt;"-"),AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+      <c r="H18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="17" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="21">
-        <v>1</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7" t="str">
-        <f t="shared" ref="K13" si="1">IF(OR(AND(H13&gt;1,H13&lt;&gt;"-"),AND(I13&gt;1,I13&lt;&gt;"-"),AND(J13&gt;1,J13&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="E19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="17" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f t="shared" ref="K14:K15" si="2">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="F20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="21">
         <v>0</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="7" t="str">
-        <f t="shared" ref="K16" si="3">IF(OR(AND(H16&gt;1,H16&lt;&gt;"-"),AND(I16&gt;1,I16&lt;&gt;"-"),AND(J16&gt;1,J16&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I10">
-    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I10">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="35" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L12">
+    <cfRule type="containsText" dxfId="34" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K10">
+    <cfRule type="containsText" dxfId="33" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K10">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L12">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="containsText" dxfId="32" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3 L6:L10">
+    <cfRule type="containsText" dxfId="31" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10 L3">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K12 J6:J12">
+    <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K12 J6:J12">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:L5">
+    <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:L5">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="17" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="14" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="12" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I19">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J6:J10">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J10 J3">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12 H6:H12">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12 H6:H12">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:J5">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:J5">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I3:I19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1975,12 +2669,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2003,18 +2697,18 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2036,7 +2730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2047,7 +2741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2058,7 +2752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2069,7 +2763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2080,7 +2774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#circulation_quality%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15381585-7C5B-4072-9FD3-0174A9144399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C806A-E6B2-40F8-9F65-9D407E7370F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>FI</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1288,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,20 +1308,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="29"/>
       <c r="I1" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
@@ -1331,34 +1331,34 @@
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1366,37 +1366,37 @@
         <v>2012</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="19">
         <v>1</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" s="7" t="str">
         <f t="shared" ref="M3:M20" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1408,37 +1408,37 @@
         <v>2013</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1450,37 +1450,37 @@
         <v>2014</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1492,37 +1492,37 @@
         <v>2015</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="H6" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="21">
         <v>2</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" s="7" t="str">
         <f>IF(OR(AND(J6&gt;1,J6&lt;&gt;"-"),AND(K6&gt;1,K6&lt;&gt;"-"),AND(L6&gt;1,L6&lt;&gt;"-"),AND(I6&gt;1,I6&lt;&gt;"-")),"Can exchange","")</f>
@@ -1534,37 +1534,37 @@
         <v>2016</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="21">
         <v>1</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1576,37 +1576,37 @@
         <v>2017</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="21">
         <v>1</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1618,37 +1618,37 @@
         <v>2018</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="21">
         <v>1</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1660,37 +1660,37 @@
         <v>2018</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="21">
         <v>1</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1702,34 +1702,34 @@
         <v>2019</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" s="21">
         <v>1</v>
@@ -1744,34 +1744,34 @@
         <v>2019</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="21">
         <v>2</v>
@@ -1786,37 +1786,37 @@
         <v>2020</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="21">
         <v>1</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1828,37 +1828,37 @@
         <v>2020</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="21">
         <v>1</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1870,37 +1870,37 @@
         <v>2021</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="21">
         <v>0</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1912,37 +1912,37 @@
         <v>2021</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="21">
         <v>0</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1954,37 +1954,37 @@
         <v>2022</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="21">
         <v>0</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1996,37 +1996,37 @@
         <v>2022</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="21">
         <v>0</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2038,34 +2038,34 @@
         <v>2022</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E19" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" s="21">
         <v>0</v>
@@ -2080,37 +2080,37 @@
         <v>2023</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="21">
         <v>0</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2710,13 +2710,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2724,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2735,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2746,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2757,10 +2757,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2768,10 +2768,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2779,10 +2779,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
